--- a/RHF_Theoritical.xlsx
+++ b/RHF_Theoritical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zogra\Downloads\Μεταπτυχιακό - Μαθήματα\Υπολογιστική Κβαντομηχανική\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170C0C4-F3F1-4ACF-9F65-FB0971B40463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6AFAA3-8FDA-4DFC-9CCB-486DCA97A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>3.0714399999999999</v>
+        <v>3.7014399999999998</v>
       </c>
       <c r="D3" s="1">
         <v>3.99682</v>
